--- a/TestMatrix.xlsx
+++ b/TestMatrix.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\source\repos\ZeusKingOfTheGods\ASP.NETCinema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFA3E14-B7F8-4E18-A752-AA7D0164C63C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDC100-F336-4721-A507-999A7CA1AB52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9D9EC9B2-552E-4EE7-B4A2-194631384F2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9D9EC9B2-552E-4EE7-B4A2-194631384F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,25 +32,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
   <si>
     <t>TestCase</t>
   </si>
   <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>kwaliteitseis</t>
+    <t>FR-01</t>
+  </si>
+  <si>
+    <t>B-01.1</t>
+  </si>
+  <si>
+    <t>B-01.2</t>
+  </si>
+  <si>
+    <t>B-01.3</t>
+  </si>
+  <si>
+    <t>B-01.4</t>
+  </si>
+  <si>
+    <t>FR-02</t>
+  </si>
+  <si>
+    <t>B-02.1</t>
+  </si>
+  <si>
+    <t>B-02.2</t>
+  </si>
+  <si>
+    <t>B-02.3</t>
+  </si>
+  <si>
+    <t>B-02.4</t>
+  </si>
+  <si>
+    <t>FR-03</t>
+  </si>
+  <si>
+    <t>B-03.1</t>
+  </si>
+  <si>
+    <t>K-03.1</t>
+  </si>
+  <si>
+    <t>FR-04</t>
+  </si>
+  <si>
+    <t>B-04.1</t>
+  </si>
+  <si>
+    <t>B-04.2</t>
+  </si>
+  <si>
+    <t>B-04.3</t>
+  </si>
+  <si>
+    <t>B-04.4</t>
+  </si>
+  <si>
+    <t>FR-05</t>
+  </si>
+  <si>
+    <t>K-05.1</t>
+  </si>
+  <si>
+    <t>K-05.2</t>
+  </si>
+  <si>
+    <t>K-05.3</t>
+  </si>
+  <si>
+    <t>FR-06</t>
+  </si>
+  <si>
+    <t>K-06.1</t>
+  </si>
+  <si>
+    <t>FR-07</t>
+  </si>
+  <si>
+    <t>FR-08</t>
+  </si>
+  <si>
+    <t>FR-09</t>
+  </si>
+  <si>
+    <t>FR-10</t>
+  </si>
+  <si>
+    <t>FR-11</t>
+  </si>
+  <si>
+    <t>FR-12</t>
+  </si>
+  <si>
+    <t>FR-13</t>
+  </si>
+  <si>
+    <t>FR-14</t>
+  </si>
+  <si>
+    <t>FR-15</t>
+  </si>
+  <si>
+    <t>FR-16</t>
+  </si>
+  <si>
+    <t>FR-17</t>
+  </si>
+  <si>
+    <t>FR-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +157,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -394,377 +525,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430CBEA-8D8D-40E1-AC93-F0317910F58F}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:AD45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F89D5E-E1B1-4BB8-9DE3-9609A448C0AD}">
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6.1</v>
-      </c>
-      <c r="D10">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D22">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="I29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="I30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
+      <c r="S45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestMatrix.xlsx
+++ b/TestMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\source\repos\ZeusKingOfTheGods\ASP.NETCinema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDC100-F336-4721-A507-999A7CA1AB52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B370B8F-36AA-4634-93E9-1FBEC5E5CE6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9D9EC9B2-552E-4EE7-B4A2-194631384F2A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>TestCase</t>
   </si>
@@ -166,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,13 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -845,11 +852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F89D5E-E1B1-4BB8-9DE3-9609A448C0AD}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -1152,19 +1162,22 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="Q42" s="2"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
